--- a/Project Documentation/Milestone 5/Chatflix QA Defect Report_1.2.xlsx
+++ b/Project Documentation/Milestone 5/Chatflix QA Defect Report_1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supreme Taco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71ED2B2-F6AA-4698-9530-C5253143F3C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8882F263-6F10-4153-9D64-E479CD3A6AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B33482A-4AF6-4C9E-B312-7C8048F81774}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{9B33482A-4AF6-4C9E-B312-7C8048F81774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Please add a link to the Post page that would direct the user back to Threads page.</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Special characters ' and " would not submit</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -605,22 +608,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" customWidth="1"/>
+    <col min="8" max="8" width="47.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -647,7 +650,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -673,7 +676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -699,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="73.75" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -725,7 +728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -751,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -777,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="176.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -803,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -817,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>9</v>
@@ -829,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -843,7 +846,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -853,7 +856,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -867,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -877,7 +880,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -891,7 +894,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
@@ -901,7 +904,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -915,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
